--- a/data/trans_bre/P28B_2_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P28B_2_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,97</t>
+          <t>14,58</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>11,31</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,11</t>
+          <t>9,26</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,09</t>
+          <t>-9,04</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>45,26%</t>
+          <t>149,71%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>23,95%</t>
+          <t>165,11%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>29,7%</t>
+          <t>162,4%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-13,89%</t>
+          <t>-63,26%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 20,45</t>
+          <t>-1,67; 31,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,36; 12,58</t>
+          <t>-3,25; 27,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,54; 14,75</t>
+          <t>-3,05; 22,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,6; 6,83</t>
+          <t>-26,24; 3,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-31,28; 238,98</t>
+          <t>-30,13; 963,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-55,39; 290,24</t>
+          <t>-61,03; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-54,96; 296,98</t>
+          <t>-57,17; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-79,14; 302,92</t>
+          <t>-100,0; 137,65</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>15,8</t>
+          <t>16,54</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>5,29</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,48</t>
+          <t>4,2</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-4,91</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>152,82%</t>
+          <t>140,33%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>28,27%</t>
+          <t>149,29%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>30,27%</t>
+          <t>47,62%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-55,88%</t>
+          <t>-24,66%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,74; 26,87</t>
+          <t>0,64; 32,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 13,66</t>
+          <t>-3,08; 15,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 10,93</t>
+          <t>-9,89; 16,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-14,24; 1,99</t>
+          <t>-9,77; 6,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,64; 498,58</t>
+          <t>-11,02; 559,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-61,33; 483,83</t>
+          <t>-70,6; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-60,43; 353,11</t>
+          <t>-68,07; 480,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-91,76; 84,77</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,23</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,26</t>
+          <t>-1,9</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,12</t>
+          <t>5,27</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,0</t>
+          <t>2,68</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-7,18%</t>
+          <t>8,25%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-11,23%</t>
+          <t>-16,59%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>57,97%</t>
+          <t>111,82%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>55,99%</t>
+          <t>26,23%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,25; 8,86</t>
+          <t>-14,51; 16,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,29; 5,92</t>
+          <t>-12,22; 6,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 8,59</t>
+          <t>-3,39; 12,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 11,37</t>
+          <t>-9,52; 12,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-40,68; 37,94</t>
+          <t>-38,48; 97,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-63,12; 95,45</t>
+          <t>-68,74; 146,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-52,3; 350,87</t>
+          <t>-53,08; 750,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-35,38; 317,72</t>
+          <t>-53,93; 294,24</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,33</t>
+          <t>13,5</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,15</t>
+          <t>4,55</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,59</t>
+          <t>7,95</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>64,08%</t>
+          <t>158,84%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>-27,98%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>65,8%</t>
+          <t>92,31%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>696,78%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -968,37 +968,37 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,26; 16,53</t>
+          <t>3,02; 23,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 6,47</t>
+          <t>-9,6; 3,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 8,77</t>
+          <t>-2,46; 12,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,86; 12,23</t>
+          <t>3,85; 15,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 190,82</t>
+          <t>7,2; 525,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-52,92; 150,16</t>
+          <t>-100,0; 218,13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-42,36; 349,8</t>
+          <t>-39,56; 745,67</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8,33</t>
+          <t>13,08</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,92</t>
+          <t>6,07</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>9,99</t>
+          <t>7,94</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,65</t>
+          <t>6,31</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>99,78%</t>
+          <t>193,51%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>119,02%</t>
+          <t>104,34%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1257,45%</t>
+          <t>539,55%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>181,71%</t>
+          <t>434,65%</t>
         </is>
       </c>
     </row>
@@ -1068,32 +1068,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,24; 17,99</t>
+          <t>0,69; 26,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 13,28</t>
+          <t>-2,69; 19,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,64; 17,18</t>
+          <t>0,9; 19,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 12,14</t>
+          <t>-0,09; 17,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 350,58</t>
+          <t>-19,51; 754,28</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-29,54; 512,11</t>
+          <t>-50,26; 1080,25</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-55,97; 1344,6</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1120,37 +1120,37 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-4,74</t>
+          <t>4,13</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>7,75</t>
+          <t>4,3</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>9,32</t>
+          <t>6,53</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-39,85%</t>
+          <t>36,2%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>567,83%</t>
+          <t>159,36%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-8,45%</t>
+          <t>71,63%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1168,27 +1168,27 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-14,14; 3,7</t>
+          <t>-10,82; 20,33</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,84; 20,65</t>
+          <t>-5,08; 14,83</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 4,05</t>
+          <t>-6,39; 8,54</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,51; 22,39</t>
+          <t>0,0; 24,35</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-83,17; 77,67</t>
+          <t>-68,43; 651,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,33</t>
+          <t>11,34</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,38</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,3</t>
+          <t>5,4</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,16</t>
+          <t>2,62</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>34,33%</t>
+          <t>89,4%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>32,09%</t>
+          <t>52,71%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>59,47%</t>
+          <t>111,67%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>64,0%</t>
+          <t>49,8%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,49 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,71; 10,23</t>
+          <t>5,78; 17,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 6,13</t>
+          <t>-0,62; 7,46</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,24; 6,49</t>
+          <t>1,6; 9,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,17; 6,61</t>
+          <t>-1,5; 6,36</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,69; 79,65</t>
+          <t>37,67; 175,51</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,22; 110,95</t>
+          <t>-10,68; 172,36</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,08; 160,5</t>
+          <t>13,44; 300,44</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,25; 199,8</t>
+          <t>-20,38; 192,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P28B_2_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P28B_2_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,189 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>14,58</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>11,31</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>9,26</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-9,04</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>149,71%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>165,11%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>162,4%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-63,26%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>14.580375315354</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>8.725529012406785</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>9.779411370336986</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-8.700048356383228</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>1.497134473964401</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>1.277086539386276</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>1.560817478186236</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.6448891074841995</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-1,67; 31,18</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-3,25; 27,74</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-3,05; 22,9</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-26,24; 3,33</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-30,13; 963,47</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-61,03; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-57,17; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 137,65</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-1.67200969266929</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-5.949516951983793</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-2.860525167891981</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-25.2151372207966</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.3012576885256789</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.6445716057294878</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.6131821858211574</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>31.18378422930351</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>22.98367074926955</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>24.48000362723315</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>3.221244789562792</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>9.634734909159313</v>
+      </c>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="n">
+        <v>1.410941294783903</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>16,54</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>5,29</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>4,2</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-1,18</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>140,33%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>149,29%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>47,62%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-24,66%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>0,64; 32,43</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-3,08; 15,39</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-9,89; 16,12</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-9,77; 6,27</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-11,02; 559,75</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-70,6; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-68,07; 480,16</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>16.54098076293191</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>6.869976799116986</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>6.545485231169613</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-1.387854080882909</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>1.40332995449411</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>2.204359016273205</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.8042667366842139</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.285735025637073</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2,22</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-1,9</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>5,27</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>2,68</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>8,25%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-16,59%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>111,82%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>26,23%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0.6433017614072047</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-1.069793401872081</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-6.750585573618151</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-10.01986388614234</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.1102043838602191</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.6087269814280895</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.5814058357370629</v>
+      </c>
+      <c r="J8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-14,51; 16,24</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-12,22; 6,88</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-3,39; 12,51</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-9,52; 12,28</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-38,48; 97,84</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-68,74; 146,65</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-53,08; 750,14</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-53,93; 294,24</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>32.42759002977436</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>18.43004589367921</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>19.77397015115516</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>5.607449288621233</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>5.597498531341887</v>
+      </c>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>5.916572359595648</v>
+      </c>
+      <c r="J9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +817,197 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>13,5</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-1,54</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>4,55</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>7,95</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>158,84%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-27,98%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>92,31%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>2.223660140713929</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-1.788148115666854</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>6.450524350722608</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>2.470704701131157</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.08249070792712782</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.1686942336923527</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>1.51383951350863</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.2458205989699069</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>3,02; 23,93</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-9,6; 3,59</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-2,46; 12,51</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>3,85; 15,22</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>7,2; 525,69</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 218,13</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-39,56; 745,67</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-14.50606638324822</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-11.88050216597313</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-1.547345474908104</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-9.614666740738546</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.3848477747011966</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.6947162192338779</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.4294048471665834</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.5723346076341351</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>16.2365401401569</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>6.506545252560965</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>14.53551923769573</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>11.97837653240786</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.9784328059244627</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>1.523817745541429</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>9.59602892218239</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>2.812864045842004</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>13,08</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>6,07</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>7,94</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>6,31</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>193,51%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>104,34%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>539,55%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>434,65%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>0,69; 26,21</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-2,69; 19,39</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0,9; 19,11</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-0,09; 17,02</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-19,51; 754,28</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-50,26; 1080,25</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+      <c r="C13" s="5" t="n">
+        <v>13.50163379531717</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-1.446221612625936</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>3.232440366789429</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>8.034166022786078</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>1.588449123266503</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.2780309716209572</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.505244106634119</v>
+      </c>
+      <c r="J13" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>4,13</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>4,3</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>1,71</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>6,53</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>36,2%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>159,36%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>71,63%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>3.015184009834162</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-9.104042813544323</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-6.219564440631196</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>3.879020590432882</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.07200395298873676</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.6561507632255376</v>
+      </c>
+      <c r="J14" s="6" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-10,82; 20,33</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-5,08; 14,83</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-6,39; 8,54</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 24,35</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-68,43; 651,0</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>23.9277883090545</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>3.385794244528827</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>11.67686141652211</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>15.28774103638527</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>5.256864231694506</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>2.246342738837241</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>5.415413782824679</v>
+      </c>
+      <c r="J15" s="6" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +1015,279 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>11,34</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>3,21</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>5,4</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>2,62</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>89,4%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>52,71%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>111,67%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>49,8%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>13.08160806891492</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>6.169701548233737</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>8.481099142832333</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>6.805188394405246</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>1.935091979095017</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>1.082779342732391</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>6.36688376015444</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>5.015801423185677</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>5,78; 17,05</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-0,62; 7,46</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>1,6; 9,44</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-1,5; 6,36</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>37,67; 175,51</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-10,68; 172,36</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>13,44; 300,44</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-20,38; 192,27</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>0.6916117461170399</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-2.684784187737197</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>1.472479131027474</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>-0.1950667116053406</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>-0.4981457794445119</v>
+      </c>
+      <c r="I17" s="6" t="inlineStr"/>
+      <c r="J17" s="6" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>26.21438436378457</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>19.5110495270963</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>19.77820672836019</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>17.87265733907972</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>7.542817327279696</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>11.0268814819572</v>
+      </c>
+      <c r="I18" s="6" t="inlineStr"/>
+      <c r="J18" s="6" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>4.13409429561163</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>4.750349092596807</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>1.390146837901614</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>6.286134901414367</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>0.3619939936723777</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>1.831076215819393</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>0.5692563408261149</v>
+      </c>
+      <c r="J19" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-10.82248319655718</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-3.697528963404971</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-7.023979868384048</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-0.6842665462765763</v>
+      </c>
+      <c r="H20" s="6" t="inlineStr"/>
+      <c r="I20" s="6" t="inlineStr"/>
+      <c r="J20" s="6" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>20.32981988288875</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>15.71033881790169</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>7.952373239763936</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>23.86904827022707</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>6.510034312376533</v>
+      </c>
+      <c r="H21" s="6" t="inlineStr"/>
+      <c r="I21" s="6" t="inlineStr"/>
+      <c r="J21" s="6" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>11.3358382650957</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>3.203854483039242</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>5.903417559652695</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>2.573034950226276</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0.8939854815259698</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>0.5569297963546606</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>1.178045183400672</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>0.4998565769290012</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>5.778688386862547</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-0.2826397092525935</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>1.785536470895275</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-1.49195258919679</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>0.3767156653455012</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>-0.08160134751985364</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>0.1821407146321321</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>-0.232796025970899</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>17.05150331530485</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>7.20835824802914</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>10.27572146104524</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>6.21328597021949</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>1.755106058613181</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>1.782200182772596</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>3.281721735532679</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>1.882087604222251</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1295,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
